--- a/Dataset/dataKumparan1.xlsx
+++ b/Dataset/dataKumparan1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unibraw\Materi Kuliah\MyProjects\Python\Information Retrieval\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7F9779-F857-422B-98FB-73020589CF3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A608E3-26A4-4989-8424-0637E4FA5D79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7C267690-5155-4F3A-913D-D8928FDDA46C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="126">
   <si>
     <t>Topic</t>
   </si>
@@ -410,6 +410,475 @@
 Usut punya usut, rupanya Negeri Atar merupakan daerah dengan topografi perbukitan. Jadi, datarannya mengandung batu, sehingga pertanian kurang berkembang.
 Alhasil, warga setempat lebih memilih untuk merantau, salah satunya membuka jasa fotokopi. Bila ada warga yang sukses, biasanya mereka akan mengajak dan membantu saudaranya untuk ikut merantau. 
 Bahkan mereka akan turut memberikan modal keluarganya yang datang dari kampung untuk memulai usaha fotokopinya sendiri. Hingga akhirnya, fotokopi bak denyut nadi perekonomian warga Nagari Atar, Sumatera Barat.</t>
+  </si>
+  <si>
+    <t>Mahfud MD Usul Presidential Threshold 20 Persen Ditinjau Ulang</t>
+  </si>
+  <si>
+    <t>Peraturan pemilu mengenai presidential threshold sebesar 20 persen sebagai syarat partai politik agar bisa mengusung capres-cawapres menjadi sorotan bagi mantan Ketua Mahkamah Konstitusi (MK) Mahfud MD. Mahfud menilai syarat 20 persen perlu dikaji ulang. 
+Mahfud mengaku setuju dengan adanya presidential threshold sebagai syarat parpol mengusung capres-cawapres. Hanya saja presidential threshold sebesar 20 persen dianggap terlalu tinggi dan berpotensi menimbulkan konflik politik. 
+"Perlu dipikirkan UU pemilihan berikutnya tentang presidential threshold. Saya setuju threshold harus ada tapi apa harus 20 persen? Nah itu perlu ditinjau melihat pengalaman sekarang, polarisasinya begitu tajam dan panas," kata Mahfud di Kantor KPU Menteng, Jakarta Pusat, Rabu (24/4).
+Mahfud mengusulkan presidential threshold 20 persen bisa disamakan dengan parlementary threshold 4 persen. Sehingga parpol yang lolos ke Senayan bisa mengusung capres-cawapres. 
+"Kalau saya usul treshold harus ada, tetapi memakai parlementary treshold misalnya 4 persen. Partai yang punya kursi di DPR berdasarkan pemilu sebelumnya, berhak mengajukan calon presiden dan wakil presiden pada pemilu yang berjalan," ucap ahli hukum tata negara itu. 
+Mahfud berpendapat presidential threshold dapat mengurangi potensi konflik politik ketika memasuki masa pengusungan capres-cawapres. 
+Namun, Mahfud sadar tidak mudah mengubah peraturan yang sudah dibuat dan ditetapkan oleh MK. Maka dari itu, ia menyarankan agar presiden dan wapres terpilih nanti agar segera merevisi Undang-undang Nomor 7 tentang Pemilu.
+"Saya usul ini dibahas di tahun pertama. Karena kalau masuk tahun ketiga dan keempat seperti kemarin, KPU sudah terbentuk, UU belum jadi, tawar-menawar, jual dagang sate terjadi disitu. Kalau ingin baik ini harus jadi prioritas pertama perubahan UU politik terutama UU penyelenggaraan pemilu," tutup Mahfud.</t>
+  </si>
+  <si>
+    <t>Data Situng C1 KPU Sementara: Jokowi 55,84%, Prabowo 44,16%</t>
+  </si>
+  <si>
+    <t>Proses rekapitulasi surat suara melalui Sistem Informasi Penghitungan (Situng) KPU sudah mencapai 30,43 persen pada Rabu (24/4) pukul 21.00 WIB . Presentase itu setara dengan surat suara dari 247.579 TPS. 
+Dari update tersebut, pasangan Joko Widodo - Ma'ruf Amin meraup suara 26.030.810 atau setara dengan 55,84 persen. Sedangkan pasangan Prabowo Subianto - Sandiaga Uno meraih surat suara sebanyak 20.585.870 atau 44,16 persen. 
+Terlepas dari hasil Situng, KPU akan tetap berpegang pada perhitungan manual berjenjang untuk memutuskan siapa pemenang Pemilu 2019. Sesuai dengan jadwal yang telah ditetapkan, rekapitulasi akhir KPU secara nasional akan keluar pada Rabu (22/5) mendatang.
+Sementara itu, hasil perhitungan C1 dari lembaga pemantau pemilu Independen, Kawal Pemilu sudah mencapai 25,46 persen. Dari perhitungan sementara itu, Jokowi-Ma'ruf meraih 52,63% sedangkan suara Prabowo-Sandi mencapai 47,37 persen.</t>
+  </si>
+  <si>
+    <t>Kerja 27 Jam Tanpa Henti, Ketua KPPS di Surabaya Meninggal Dunia</t>
+  </si>
+  <si>
+    <t>Jalan Kapas Madya Barat 9 Nomor 38, Tambak Sari, Surabaya, tampak ramai kerumunan warga. Di tengah jalan gang itu terlihat tenda hijau tepat di depan rumah berwarna biru. 
+Di bawah tenda ada tirai hijau dan keranda yang diletakkan berbaris. Di dalam tirai itulah jasad Sunaryo (57) tengah dimandikan. 
+Sunaryo merupakan guru di SDN Ploso yang didapuk sebagai Ketua KPPS di TPS 13 Kelurahan Kapas Madya Barat, Kecamatan Tambaksari, Kota Surabaya. Dia meninggal dunia lantaran kelelahan usai melaksanakan tugas pemilu 2019. 
+Terhitung 27 jam Sunaryo bekerja di TPS 13 dalam rentang waktu 17 April sampai 18 April. "Istirahat satu jam, terus ngajar sampai jam 5 (sore)," kata Hanif Arifinanda, putra Sunaryo, di rumah duka, Rabu (24/4). 
+Sunaryo terkenal dengan sikapnya yang disiplin terhadap pekerjaan yang diembannya. Dia enggan meninggalkan pekerjaan hingga mengabaikan kondisi kesehatannya.
+"Sesudah merapikan TPS, istirahat, pagi berangkat ngajar, capek (muntah-muntah), besoknya ke RSUD Soewandi dan dirujuk RS Haji," ujar Lurah Kapas Madya, Siswono. 
+Sunaryo dirawat di RS Haji sejak tanggal 18 April hingga 24 April 2019. Dia menghembuskan nafas terakhirnya di RS Haji pada Rabu (24/4) sekitar pukul 15.30 WIB.
+"Duka yang mendalam, dan kami saksikan, kami catat dengan sejarah demokrasi di memori kami di kantor kami, bahwa Bapak Sunaryo adalah pahlawan demokrasi," kata Ketua BPP Linmas Surabaya, Eddy Kristianto, saat melawat ke rumah duka. 
+"Beliau meninggal karena jihad di jalan Allah dalam perjuangannya menentukan pemimpin, beliau adab di jalan Allah," kata dia. 
+Sementara itu, mendengar kabar kematian Sunaryo, Kabag Humas Pemkot Surabaya, Muhammad Fikser, mengatakan bakal menerjunkan tenaga medis di seluruh tempat rekapitulasi perhitungan suara yang ada di Surabaya. 
+"Malam ini tim kesehatan disebar untuk mendampingi petugas KPPS TPS," kata Fikser saat dihubungi.</t>
+  </si>
+  <si>
+    <t>Cara Kerja ayojagatps.com yang Unggulkan Sementara Prabowo 62,9%</t>
+  </si>
+  <si>
+    <t>Aplikasi dan situs ayojagatps.com ikut meramaikan penghitungan suara di Pemilu 2019 lewat upload C1. Situs tersebut, hingga Rabu (24/4) pukul 20.00 WIB, menempatkan paslon 02 Prabowo-Sandi meraih 62,90 persen suara, sementara paslon 01 Jokowi-Ma'ruf 37,10 persen.
+Namun, data yang masuk ke website dan aplikasi yang diyakini kebenarannya oleh cawapres Sandiaga Uno itu, sangat lambat. Hingga 6 hari pascapemungutan suara, baru 36.233 TPS atau setara 7.414.564 suara yang diterima.
+Dibandingkan dengan KawalPemilu yang sudah 207.052 TPS terlebih scan C1 KPU dalam Situng yang sudah 246.765 TPS. Sang inisiator ayojagatps.com bernama Mochamad James Falahuddin memberikan penjelasan kepada kumparan soal cara kerja timnya mempublikasikan data.
+"Kita tidak menyebut diri kita real count, kita menyebut diri kita platform di mana masyarakat bisa berpartisipasi secara aktif untuk membantu menjaga TPS-nya, menjaga suara di TPS. Jadi kami lakukan ini hanya penjumlahan sederhana dari kontributor," ujar James, Rabu (24/4).
+ayojagatps.com merupakan aplikasi yang berbasis di smartphone. Siapapun bisa mendownload aplikasi tersebut. Namun, untuk menjadi kontributor yang menyetorkan data ke aplikasi tersebut, ada sejumlah persyaratan.
+James menjelaskan kontributor harus mendaftar dengan menyertakan foto KTP dan nomor HP. Selanjutnya, data tersebut akan diverifikasi hingga diketahui secara pasti tempat orang tersebut terdaftar sebagai Daftar Pemilih Tetap (DPT).
+"Jadi langsung dialokasikan ke TPS-TPS tempat menggunakan hak suaranya. Nanti foto C1 yang diberikan harus dari TPS-nya, tidak bisa dari TPS tetangga," jelasnya.
+Sesudah mendapatkan kiriman dari kontributor, ayojagatps.com kemudian melakukan tiga tahapan penyaringan. Pertama yakni foto C1 harus yang telah ditandatangani ketua KPPS. James menjelaskan jika tak ada tanda tangan, data tersebut akan dibuang.
+"Filter kedua, kan bisa saja satu TPS ada 2 orang atau lebih, kan kita tidak membatasi. Kalau dari input yang dua orang atau lebih ini ada perbedaan angkanya, kan itu ada totalnya. Nah kalau totalnya enggak macth, kita buang datanya," kata James.
+Sementara ketiga adalah kewajaran jumlah pemilih di TPS. ayojagatps.com membatasi data jumlah pemilih sebanyak 600 orang di satu TPS. Hal itu dilakukan karena ada beberapa TPS dengan jumlah 500 orang pemilih dilegalkan. 
+"Awalnya kita setting di angka 400 pemilih, cuma karena ada beberapa case, ada yang lebih dari 500 dilegalkan, terus kita kasih maksimal itu 600. Kalau ada yang melaporkan total dari angka itu, kita langsung buang," ucap James.
+"Jadi kita memang cukup ketat untuk validasi data itu. Kalau sudah melewati itu baru bisa kita tayangkan datanya," tegasnya.
+Terkait target 100 persen TPS, James mengakui hal itu mustahil. Sebab, saat ini pendownload aplikasinya baru 550 ribu, sedangkan jumlah TPS sendiri ada 813.350. Meski demikian, ia meyakini data yang masuk ke pihaknya tidak sedikit dan akan terus bertambah.
+"Sedangkan dari yang dowload tidak semuanya melakukan registrasi dan mengirimkan datanya," kata dia.
+Meski menampilkan data TPS, James menjelaskan ayojagatps.com bukanlah lembaga survei atau LSM. Ia menegaskan pihaknya hanya platform untuk membantu masyarakat menjaga suara di TPS masing-masing.
+"Kita bukan lembaga survei, kita bukan LSM apapun yang melakukan proses-proses statistik. Jadi benar-benar hanya simpel, penjumlahan, nanti kita tampilkan dalam bentuk tabel," ungkapnya.</t>
+  </si>
+  <si>
+    <t>KPU: Salah Input C1 Hanya Ada 105 dari 241.366 TPS</t>
+  </si>
+  <si>
+    <t>KPU memberikan klarifikasi mengenai banyaknya temuan salah input data scan C1 dalam Sistem Informasi Penghitungan (Situng). KPU menegaskan hingga Rabu (24/4) sore, kesalahan entri data hanya di 105 TPS. 
+"Kekeliruan entri hanya 105 kali dari 241.366 TPS (yang ditanya sudah diterima). 105 kesalahan itu berdasarkan 26 laporan masyarakat dan 79 monitoring internal KPU," kata Komisioner KPU Viryan Azis di Kantor KPU Menteng, Jakarta Pusat, Rabu (24/4).
+Viryan menegaskan komitmennya untuk menjaga proses rekapitulasi suara. Dari 105 kesalahan, 64 di antaranya sudah dilakukan perbaikan.
+"KPU bersunguh-sungguh menjaga proses yang berjalan, adapun berbagai pemberitaan yang viral lebih kepada pemberitaan berulang-ulang terkait hasil keliru entri data," tegas Viryan.
+Sementara, mantan Ketua Mahkamah Konstitusi Mahfud MD yang sore ini datang ke kantor KPU memantau secara langsung di server KPU, memastikan kesalahan entri data ini ditemukan pada masing-masing pasangan calon baik Jokowi-Ma'ruf dan Prabowo-Sandi. 
+"Yang menarik kesalahan itu yang 105 bukan hanya terjadi dan hanya memenangkan satu paslon. Dua paslon sama-sama mendapat keuntungan dan kerugian dari beberapa kesalahan entri itu. Jadi tak mungkin itu terstruktur. Kalau terstruktur ini samalah, tapi kalau tidak percaya juga nanti ada forum hukum yang menyelesaikan," kata Mahfud. 
+Lebih lanjut Mahfud yakin KPU sejauh ini bersikap professional sebagai penyelenggara pemilu. Tidak ditemukan adanya indikasi kecurangan yang dilakukan KPU.
+"Kami tadi melihat sendiri bahwa server pengolahan data itu ada di sini. Bohong kalau dibilang itu ada di Singapura, orangnya juga Indonesia semua enggak ada bule, asingnya. Karena itu masyarat harus tenang jangan sampai pemilu ini dirusak hoaks," tegas Mahfud. 
+"Tak Mungkin juga ada pemalsuan-pemalsuan yang bisa lolos karena form C1 banyak, paslon punya KPU punya saksi punya. Kalau ada yang palsu semua pasti ketahuan, jadi jangan ribut seakan-akan KPU sudah lakukan rekayasa terstruktur sistematis dan masif," tutup Wahyu.</t>
+  </si>
+  <si>
+    <t>Mahfud MD Usai Tinjau Server KPU: Kesalahan Entri C1 Hanya 0,0004%</t>
+  </si>
+  <si>
+    <t>Mantan Ketua Mahkamah Konstitusi (MK), Mahfud MD, bersama Guru Besar Ilmu Statistika IPB, Asep Saifudin, dan Allisa Wahid, mendatangi Kantor KPU di Jalan Imam Bonjol, Menteng, Jakarta Pusat. 
+Mahfud menjelaskan, maksud kedatangan mereka karena ingin memastikan proses penghitungan dan rekapitulasi suara berlangsung jujur. Sebab Mahfud mengaku risih dengan berbagai macam isu kecurangan yang dituduhkan kepada KPU.
+"Kami merasa risih juga merasa terganggu dengan perkembangan terakhir di mana ada tudingan dan dugaan terjadi kecurangan-kecurangan yang bersifat terstruktur di KPU. Sebelum pemungutan suara kami datang menyatakan bahwa KPU profesional, sehingga ketika ada berita seperti ini kami terganggu ingin mengecek apa yang sebenarnya terjadi," kata Mahfud di lokasi, Rabu (24/4). 
+Mahfud bersama Asep dan Allisa pun diperkenankan mengecek ke ruang server KPU. Setelah mengecek, Mahfud merasa lega. Sebab ia tidak menemukan adanya kecurangan seperti yang dituduhkan sejumlah pihak. 
+Menurutnya, kesalahan entri data dari C1 ke Sistem Informasi Penghitungan Suara (Situng) hanya di 105 TPS dari sekitar 240 ribu TPS yang telah masuk datanya. 
+"Sampai pukul 17.15 WIB TPS yang sudah entri data sudah mencapai 241.366 TPS dengan kesalahan entri itu 105 TPS, 24 di antaranya laporan masyarakat. Selebihnya ditemukan KPU sendiri," kata Mahfud,
+"Dari situ kekeliruan itu berarti hanya ada 0,0004 persen, berarti ada 1:2.500 TPS. Dari situ menjadi tak mungkin kalau mau ada rekayasa terstruktur. Kalau terstruktur mestinya berpersen-persen gak mungkin ada kesengajaan," lanjutnya. 
+Sehingga Mahfud meminta kepada masyarakat untuk tetap tenang dan jangan terpengaruh dengan tudingan KPU curang. Meski demikian, ia meminta masyarakat untuk tetap mengawasi proses entri data tersebut. 
+"Kita tak anggap kesalahan itu harus dibenarkan, tetapi harus dipahami dan itu bisa diselesaikan dalam adu data pada 22 Mei nanti. Jadi jangan bertindak sendiri-sendiri dan terus terus menyebarkan hoaks seakan-akan ada rekayasa," tegas Mahfud. 
+Penting dicatat, Situng KPU bukanlah hasil resmi dan tidak akan dijadikan rujukan KPU dalam menentukan hasil Pemilu.
+Hasil resmi Pemilu 2019 akan merujuk pada rekapitulasi suara manual dan berjenjang dari TPS hingga nasional. Saat ini rekap masih berada di tingkat kecamatan. KPU mempersilakan masyarakat yang meragukan data C1 untuk mengoreksi di rekap tingkat kecamata</t>
+  </si>
+  <si>
+    <t>Selamat Jalan Para Pahlawan Pemilu 2019</t>
+  </si>
+  <si>
+    <t>Pemungutan suara Pemilu 2019 telah usai. Tapi duka masih terasa bagi masyarakat Indonesia. Sebab, sebanyak 144 petugas KPPS meninggal dunia setelah melaksanakan tugasnya pada 17 April 2019 lalu. 
+Dari 34 provinsi, Jawa Barat menjadi provinsi dengan jumlah petugas KPPS yang menjadi korban jiwa terbanyak, yakni 38 anggota. Disusul Jawa Tengah dengan 25 korban jiwa. 
+Sementara itu, berdasarkan data KPU pada Rabu (24/4) pukul 15.15 WIB, tercatat 883 petugas KPPS yang sakit. Sebanyak 191 orang berasal dari Sulawesi Selatan. Lalu 113 anggota dari Nusa Tenggara Barat. 
+Terkait hal ini, KPU sudah melakukan pertemuan dengan Kementerian Keuangan (Kemenkeu) untuk membahas mengenai santunan kepada petugas KPPS yang meninggal maupun sakit. Kemenkeu menyatakan, akan memberikan santunan kepada KPPS yang mengalami musibah.
+"Kemenkeu kan sudah memberikan dukungan pernyataan akan memberikan santunan dan kami apresiasi sudah ada beberapa pemprov yang akan berikan santunan," ucap Komisioner KPU Viryan Azis di Kantor KPU Menteng, Jakarta Pusat, Selasa (23/4).</t>
+  </si>
+  <si>
+    <t>Prabowo Syukuran Kemenangan di TMII, Wartawan Tak Boleh Meliput</t>
+  </si>
+  <si>
+    <t>Capres nomor urut 02 Prabowo Subianto sempat menghadiri kegiatan syukuran kemenangan pilpres serta konsolidasi bersama sejumlah pendukung dan relawan di Padepokan Pencak Silat, TMII, Jakarta Timur, Rabu (24/4). Ketua BPN Djoko Santoso dan Anggota Dewan Pembina BPN, Amien Rais terlihat hadir di lokasi.
+Namun, ada yang berbeda dalam acara syukuran yang digelar kali ini. Acara syukuran kemenangan bukan seperti selebrasi keberhasilan melainkan acara internal. Meski sudah mendapat undangan, awak media dibatasi dan diinstruksikan untuk tidak meliput selama Prabowo berada di lokasi.
+Padahal, acara itu diperkirakan akan berlangsung meriah. Sebab, acara diadakan di Padepokan Pencak Silat TMII. Sejak siang, sejumlah awak media sudah bersiap untuk meliput.
+Sejak pukul 12.00 WIB, para pendukung silih berganti tiba di lokasi acara. Meskipun pada pukul 13.00 WIB hujan sempat turun begitu deras, pendukung tetap datang ke lokasi.
+Sedangkan, awak media juga telah bersiap memasang sejumlah alat untuk meliput kegiatan itu. GOR terlihat tidak terlalu padat diisi oleh pendukung.
+Hingga akhirnya, setengah jam sebelum Prabowo tiba, sekitar pukul 14.30 WIB pihak penyelenggara acara memberikan pemberitahuan bahwa seluruh peserta hingga awak media tidak dapat mengambil gambar Prabowo selama berada di lokasi acara.
+"Diimbau bagi rekan-rekan media maupun juga kita semua untuk tidak merekam dalam bentuk apa pun baik dari kamera profesional maupun dari handphone kita masing masing. Terima kasih atas kerja samanya," kata salah satu pembawa acara yang bertugas.
+Benar saja, saat Prabowo tiba pada pukul 15.00 WIB, peserta dan awak media diawasi oleh sejumlah petugas yang menggunakan baju putih dan hitam. Entah apa alasan mereka melarang hal itu.
+Saat itu, salah seorang fotografer bercerita, seorang teman di sampingnya ketahuan mencoba mengabadikan kehadiran Prabowo. Petugas yang melihat itu langsung mendatangi dan meminta kamera untuk diturunkan.
+"Jangan direkam, turunkan kameranya," ucap petugas itu sambil menampik kamera yang sedang aktif.
+Seluruh awak media menyepakati untuk keluar lokasi acara karena dibatasi dalam melakukan tugasnya. Media menanti di luar GOR tanpa mengetahui apa saja pembahasan Prabowo bersama para pendukungnya.
+Sampai akhirnya, seorang petugas sempat mengeluarkan seorang pria dari lokasi acara karena masih berani merekam kegiatan Prabowo. Ia dibawa keluar oleh sejumlah petugas yang dominan menggunakan baju berwarna putih.
+Teriakan hingga saling dorong sempat terjadi saat pria itu diinterogasi petugas. 
+Prabowo kemudian keluar pada pukul 15.46 WIB. Tak sampai 1 jam ia berada di lokasi. Setelah ia pulang pun, Prabowo tak memberikan pernyataan apapun kepada awak media.
+Belum diperoleh klarifikasi dari tim BPN mengapa acara ini tak boleh diliput wartawan. Padahal sebelumnya sejak Selasa (23/4) wartawan dikirim undangan untuk datang meliput.</t>
+  </si>
+  <si>
+    <t>Din Syamsuddin: Klaim Kecurangan Pilpres Harus Ditabayunkan</t>
+  </si>
+  <si>
+    <t>Isu kecurangan di Pemilu 2019 terus menyeruak. Kedua timses capres-cawapres yang bertarung di Pilpres 2019 juga saling mengklaim kemenangan. Hal ini juga menjadi perhatian Majelis Ulama Indonesia (MUI).
+Ketua Dewan Pertimbangan MUI Din Syamsuddin meminta semua pihak untuk menahan diri dalam menyampaikan klaim kemenangan ataupun klaim adanya kecurangan. Kedua pihak harus mengedepankan klarifikasi atau tabayun dalam menyikapi hal ini.
+"Dalam kehidupan politik, klaim kecurangan itu harus ditabayunkan (klarifikasi), harus diverifikasi," kata Din usai memimpin rapat Pleno Dewan Pertimbangan MUI, di Kantor MUI, Jakarta Pusat, Rabu (24/4).
+"Semua pihak, atau banyak orang kemudian mengklaim ada kecurangan sampai tingkat keyakinan, karena ada fakta-fakta forensik. Itu yang harus diverifikasi dan orang yang memverifikasinya hakim, (itu) hukum," tambahnya. 
+Mantan Ketum PP Muhammadiyah itu menyarankan, agar pihak yang menilai pilpres curang sebaiknya mengumpulkan fakta kecurangan lalu memberikannya kepada aparat penegak hukum.
+"Kita lihat nanti verfikasinya, berlaku jujur atau tidak. Jadi, pikiran posisi kami itu," ucapnya. 
+Din meminta agar narasi menyebut pilpres curang tidak terus disampaikan kepada publik. Din berpandangan, lebih baik menempuh jalur hukum, ketimbang berteriak pilpres curang dan tak percaya hasilnya.
+"Kumpulkan verifikasi lewat mekanisme hukum yang berkejujuran dan keadilan," katanya.</t>
+  </si>
+  <si>
+    <t>Sandi Terbuka Ditemui Ma'ruf: Tapi Masih Fokus Kawal Hasil Pemilu</t>
+  </si>
+  <si>
+    <t>Cawapres 02 Sandiaga Uno menanggapi rencana cawapres nomor urut 01 Ma’ruf Amin yang ingin bertemu untuk memastikan suasana tetap damai. Menurut Sandi, hingga kini belum ada pihak yang menghubunginya untuk pertemuan itu. Meski demikian, saat ini ia ingin fokus untuk mengawal penghitungan suara.
+“Sampai hari ini sih belum ada yang menghubungi saya. Tapi buat saya yang menjadi fokus ke depan adalah untuk memastikan C1 dan proses pengawalan penjagaan dari hasil pemilu ini bisa dilakukan dengan all out,” kata Sandi di Rumah Siap Kerja, Jakarta Selatan, Rabu (24/4).
+Meski demikian, Sandi mengaku tetap membuka diri bertemu dengan Ma’ruf. Jika pertemuan itu terwujud, Sandi akan meminta nasihat dan pandangan Ma’ruf yang dia anggap sebagai guru.
+“Saya sekarang fokusnya ada di pengawalan proses C1 dan program-program kita yang sudah jalan. Kalau silaturahmi itu kan kapan saja bisa. Saya sudah ingin ketemu dari sebelumnya tapi kan Allah belum membukakan jalan. Tapi kalau silaturahmi itu kan bagus,” ungkap Sandi.
+“Buat saya ya sebagai murid, saya kan murid dari Pak KH Ma’ruf Amin yang sangat kita muliakan, ya tentunya ingin mendengar nasihat-nasihat, pandangan-pandangan beliau, dia kan kita muliakan,” imbuh mantan Wagub DKI itu.
+Sandi mengaku sudah sejak Agustus 2018 ingin bertemu Ma’ruf. Ia mengatakan, telah meminta dipertemukan dengan Ma'ruf lewat Muhammad Syakir Sula dan Ustaz Yusuf Mansur. Namun, hal itu belum terwujud, karena Ma'ruf tengah sibuk.
+“Sudah beberapa kali saya minta waktu beliau, beliau tidak memiliki waktu pada saat itu. Tentunya silaturahmi itu baik buat saya,” pungkas Sandi.
+Ma'ruf mengaku niatnya bertemu dengan Sandi untuk meredam suhu panas politik di masyarakat. Sehingga masyarakat tak terpecah belah usai Pilpres 2019.
+“Bertemunya itu pasti, kita gimana pun, bangsa ini harus kita jaga, harus kita satukan, tidak boleh ada konflik. Dan itu harus dimulai dari elitenya, dari pucuknya, dari atasnya,” kata Ma'ruf di Ndalem Habib Hilal Aladid, Minggiran, Mantrijeron, Kota Yogyakarta, Rabu (24/4).
+Akan tetapi, dia belum menjadwalkan secara pasti pertemuannya itu. “Ya pasti (bertemu), kapannya (pertemuan) itu yang belum tahu,” ujarnya.</t>
+  </si>
+  <si>
+    <t>Teknologi Jadi Tulang Punggung Media Online di Era Digital</t>
+  </si>
+  <si>
+    <t>Kemajuan teknologi memudahkan dan mengubah kebiasaan manusia dalam mengonsumsi informasi dan hiburan di media massa. Televisi mulai diganti dengan streaming video. Unduhan musik diganti dengan streaming musik. Hal itu juga terjadi pada kebiasaan mengonsumsi berita.
+Jika dulu konsumen membaca media cetak untuk mendapatkan berita, sekarang mereka lebih senang membaca berita dari media online yang bisa diakses dengan mudah melalui smartphone. Bisa kapan saja dan di mana saja.
+Teknologi yang terus berkembang akan meningkatkan pengalaman konsumen, sehingga pelaku usaha di industri teknologi harus memutar otak agar produk yang diciptakan tetap menjadi pilihan utama bagi konsumen. 
+Media online tidak bisa selamanya terus begini. Diperlukan terobosan agar ia tidak ditinggalkan pembacanya.
+Para ahli percaya, masa depan media online adalah media yang menyajikan beritanya berdasarkan data (data driven), melibatkan teknologi seperti otomatisasi, machine learning, dan kecerdasan buatan (artificial intelligence/AI). kumparan, sebagai platform media kolaboratif, sadar betul dengan penerapan teknologi akan membantu membentuk masa depan media online.
+Dalam roadshow kumparan Academy Development Program di Institut Teknologi Sepuluh Nopember (ITS), Surabaya, pada Selasa (23/4), tim engineer kumparan yang menjadi pembicara, yaitu Chief Product &amp; Data Thomas Diong, serta VP Engineering Ferdian Robianto, mengatakan teknologi yang dipakai kumparan saat ini jauh lebih baik dibandingkan teknologi yang dipakai oleh media online di Indonesia.
+Sebagai media berbasis teknologi, kumparan tidak hanya berpegang teguh pada kualitas konten yang diberikan, tapi juga bagaimana kumparan menggunakan teknologi dalam menerapkan otomatisasi pada aplikasi maupun situs web.
+Dari sisi machine learning, kumparan mengembangkan teknologi yang dapat mendeteksi kesalahan ketik pada berita. Ini dilakukan untuk meminimalkan salah ketik alias typo yang berakibat mengganggu kenyamanan membaca. 
+kumparan juga memanfaatkan big data untuk membantu mengambil keputusan di berbagai divisi. Dari data ini pula, tim redaksi dapat menentukan topik liputan apa yang menarik minat pembaca dan bisa menjadi pembicaraan publik.
+"Data sangat berguna untuk kumparan, karena berbekal data ini, semua keputusan besar bisa didasarkan atas data," kata Thomas.
+Ada juga Personalization Algorithm Technology (PAT) yang memungkinkan kumparan melakukan profiling pengguna berdasarkan lokasi dan konten apa yang disukai. Manfaatnya, pengguna dapat membaca konten yang disukainya terlebih dahulu, seperti yang terjadi pada algoritma media sosial.
+Platform kumparan juga telah memanfaatkan personalisasi untuk mengirim konten berkualitas pada orang yang tepat dan di waktu yang tepat pula.
+Institut Teknologi Sepuluh Nopember di Surabaya adalah kampus kedua yang dikunjungi kumparan dalam rangkaian roadshow kumparan Academy Development Program, setelah pada Senin (22/4) lalu menyambangi Universitas Brawijaya di Malang. 
+Program kumparan Academy Development Program dijadikan tempat belajar dan berkembang bagi para mahasiswa dan lulusan muda di Indonesia. Selanjutnya, program ini akan melanjutkan roadshow ke kota-kota besar di Indonesia untuk mencari engineer muda berbakat khususnya di bagian Frontend dan Backend di Telkom University di Bandung dan Institut Pertanian Bogor. Informasi lengkap seputar kumparan Academy Development Program dapat diakses di academy.kumparan.com.</t>
+  </si>
+  <si>
+    <t>Smartfren Uji Kesiapan Jaringan Hadapi Ramadhan dan Lebaran 2019</t>
+  </si>
+  <si>
+    <t>Jelang bulan Ramadhan yang tinggal menghitung hari, perusahaan telekomunikasi Smartfren melakukan uji jaringan untuk memastikan layanan yang baik selama bulan puasa. Hal ini dikarenakan ada tren peningkatan konsumsi data yang terjadi saat Ramadhan.
+Pada tahun 2019 ini, Smartfren telah melakukan optimasi pada daerah yang dianalisis akan mengalami peningkatan trafik data, serta melakukan uji kesiapan final di seluruh jalur mudik.
+“Berdasarkan data yang kami miliki ketika Ramadhan tahun lalu, sepanjang jalur mudik Pulau Jawa serta di kota singgah/tujuan lalu lintas komunikasi mengalami peningkatan tren bukan hanya dari H-3 namun sejak seminggu menjelang Hari Raya Idul Fitri. Adapun peningkatan terjadi di Pelabuhan Merak, Cilegon, Tasikmalaya, Magelang, Madiun, dan Banyuwangi," ujar Munir SP, VP Technology Relations and Special Project Smartfren, di Bandung, Rabu (24/4).
+Dari hasil pengujian kesiapan jaringan 4G LTE Smartfren, tahun ini perusahaan telekomunikasi itu melakukan penambahan kapasitas rata-rata 30 persen serta mempersiapkan Task Force lapangan dan pemantauan 24 jam x 7 hari dari NOC (Network Operation Center) di seluruh jalur mudik, lokasi publik, dan kota tujuan.
+Smartfren mengklaim para pelanggannya tidak perlu khawatir dengan jaringan Smartfren selama mudik dan Lebaran 2019. Munir memprediksi kenaikan trafik data di Smartfren selama Ramadhan akan terjadi mulai pukul 16.00 sampai 01.00, selain media sosial dan aplikasi streaming musik serta video.
+"Tahun ini kenaikan trafik juga akan disumbang dari para gamers," imbuh Munir.
+Untuk menemani para pelanggannya berpuasa, Smartfren menyediakan sejumah paket kuota internet mulai dari unlimited hingga kuota besar. Misalnya ada paket 'Super 4G Unlimited', yang merupakan paket internet kuota tanpa batas seharga Rp 65 ribu selama 30 hari.
+Selain itu, ada juga pilihan kuota besar dari paket 'Super 4G Kuota' yang ditawarkan mulai 10 GB seharga Rp 30 ribu, hingga 60 GB, seharga Rp 100 ribu.
+Ada produk khusus jelang Ramadhan yaitu 'Super 4G Kuota' 4 GB yang dijual Rp 12.500 saja. Paket ini dapat digunakan pengguna Smartfren di perangkat smartphone atau modem WiFi selama 24 jam penuh di jaringan 4G LTE Smartfren.</t>
+  </si>
+  <si>
+    <t>Oppo F11 Pro Edisi Avengers Resmi Dijual di Indonesia, Harganya?</t>
+  </si>
+  <si>
+    <t>Super hype! Penayangan perdana film 'Avengers: Endgame' pada Rabu (24/4) ini di Indonesia ikut diramaikan berbagai produk bertema Marvel dari sejumlah brand. Oppo, menjadi salah satu brand teknologi yang menghadirkan smartphone edisi khusus Avengers.
+Smartphone terbaru Oppo, F11 Pro, kini hadir dalam balutan desain bertema Avengers, tim beranggotakan jagoan-jagoan super dalam dunia Marvel. Peluncuran F11 Pro edisi Avengers ini dilakukan di Jakarta bertepatan dengan hari pertama penayangan 'Avengers: Endgame' di Indonesia.
+Bodi F11 Pro edisi Avengers dilapisi warna Space Blue dengan gradasi menyebar dan ditambah logo ‘Avengers’ berwarna merah besar. Selain itu, di bagian atas modul kamera belakang juga terlihat ada logo Avengers kecil yang tampak keren.
+Di Indonesia, Oppo F11 Pro Avengers dijual dengan harga Rp 5,3 juta dan pemesanan awal dapat dilakukan mulai 24 April sampai 4 Mei 2019 di situs e-commerce Tokopedia. Penjualan perdana F11 Pro edisi Avengers akan dilakukan pada 5 Mei mendatang di Tokopedia dan toko Oppo resmi terpilih. Perlu dicatat, produk ini hanya akan dijual dalam jumlah yang terbatas.
+Selain desainnya, wallpaper dalam F11 Pro edisi ini juga sudah menampilkan gambar Avengers. Bahkan, ada pelindung bertemakan Captain America yaitu cincin jari yang terletak di tengah perangkat terinspirasi oleh perisai andalan Captain America.
+Spesifikasi F11 Pro edisi Avengers hampir sama dengan F11 Pro edisi reguler. Beda kedua edisi ini hanya terletak pada kapasitas RAM dan penyimpanan datanya, di mana F11 Pro edisi Avengers dibekali RAM 6 GB dan memori internal 128 GB.
+Selebihnya, spesifikasinya tidak ada bedanya. F11 Pro edisi Avengers juga dibenamkan chipset MediaTek Helio P70, mengusung layar panoramic screen tanpa notch berukuran 6,53 inci IPS LCD, serta baterai berkapasitas 4.000 mAh yang dilengkapi fitur fast charging VOOC 3.0.
+Untuk konfigurasi kamera, Oppo F11 Pro disematkan kamera belakang ganda beresolusi 48 MP dan 5 MP, sedangkan kamera depannya 16 MP.
+Bagaimana fanboy Marvel tertarik untuk membeli F11 Pro edisi Avengers ini? Keren ya.</t>
+  </si>
+  <si>
+    <t>Menilik Teknologi Daging Buatan di Burger King</t>
+  </si>
+  <si>
+    <t>Pada awal bulan April, ada sebuah berita besar di kalangan pencinta teknologi dan makanan dunia. Burger King mengumumkan untuk merilis burger daging buatan di 57 toko di St. Louis, kota bagian timur AS. Jika daging buatan ini diminati, Burger King akan terus meluncurkan dagingnya di 7.200 restorannya di seluruh AS. 
+Burger King adalah rumah makan siap saji internasional yang menjual burger, kentang goreng, dan minuman. Mereka memiliki lebih dari 10.000 restoran di seluruh dunia, dengan kapitalisasi pasar lebih dari 10 juta miliar. Action Burger King begitu penting, karena menandai titik balik dalam teknologi daging buatan yang mungkin akan memasuki tahap komersialisasi skala besar.
+Teknologi burger daging buatan merupakan salah satu dari sepuluh teknologi terobosan terbaik tahun 2018 oleh MIT Technology Review. Teknologi ini sangatlah penting untuk keberlanjutan manusia. Kebiasaan makan manusia dalam memproduksi daging, telah menempati sejumlah besar lahan sumber daya lingkungan.
+Secara khusus, emisi gas rumah kaca dari akun ternak manusia telah menyebabkan 15 persen dari emisi gas rumah kaca global. Seperempat tanah yang tidak tertutup oleh es di permukaan Bumi, digunakan untuk menggembalakan ternak. Sepertiga dari lahan pertanian digunakan untuk menanam pakan tanaman untuk ternak.
+Hal ini akan semakin meningkat, mengingat peningkatan populasi dunia dan perubahan taraf kualitas hidup yang berimplikasi pada industri peternakan, khususnya produksi daging.
+Produksi daging mengonsumsi lebih banyak sumber daya daripada produksi makanan lainnya. Tergantung pada jenis hewan, satu pound protein daging yang diproduksi dengan metode industri, akan mengonsumsi 4 hingga 25 kali lipat air, 6 hingga 17 kali lipat lahan tanah, dan 6 hingga 20 kali lipat banyaknya bahan bakar fosil.
+Dari perspektif bisnis, memberi makan sapi dan mengubahnya menjadi daging sangatlah tidak efisien. Dari perspektif kesehatan, jika dibandingkan dengan burger daging sapi, kandungan lemak dan kolesterol pada burger daging buatan, masing 15 persen dan 90 persen lebih rendah. Karena itu, daging buatan akan menjadi teknologi penting yang menjadi sorotan dalam bidang makanan.
+Burger daging buatan pertama kali muncul pada tahun 2013. Burger daging buatan langsung dimakan di tempat pada saat konferensi pers yang didanai salah satu pendiri Google, Sergey Brin. Biaya pembuatan burger tersebut mencapai 330.000 dollar. 
+Prinsip teknik ini mengekstraksi sejumlah kecil sel dari hewan, kemudian mengembangbiakkannya di laboratorium, dan memberinya zat gizi dengan larutan berisi zat gizi khusus untuk menghasilkan jaringan otot. Sederhananya, sel-sel hewan tumbuh langsung menjadi daging di laboratorium.
+Saat ini, ada dua perusahaan yang telah mengadopsi teknologi baru ini. Impossible Foods (IF) dan Beyond Meat (BM). 
+Di antara mereka, IF telah menerima investasi modal skala besar dari Google, Bill Gates dan Li Ka-shing (orang paling kaya di Hong Kong, yang sering dipanggil sebagai Superman Lee). Produk ini telah dijual di lebih dari 5.000 restoran.
+Teknologi baru ini tidak lagi menghasilkan daging dengan cara mengembangbiakkan sel di laboratorium, tetapi memproduksi daging berdasarkan tanaman. IF menggunakan hemoglobin yang diproduksi oleh ragi dan dimodifikasi secara genetik untuk membuat burger daging buatan. Heme (molekul organik) dapat menciptakan warna dan rasa daging. 
+Sementara itu, BM menggunakan protein kacang polong untuk membuat daging sapi giling. Produk-produk BM telah dijual di toko chain stores seperti Whole Foods di Amerika Serikat. Selanjutnya, perusahaan-perusahaan ini juga telah memulai penelitian dan pengembangan steak daging buatan.
+Burger daging buatan yang dijual Burger King dibuat oleh perusahaan IF. Para pelanggan dan karyawan Burger King sendiri tidak dapat merasakan perbedaan antara burger tradisional dan burger daging buatan.
+Just like grandma says, pendiri Microsoft, Bill Gates, mempunyai harapan yang sangat tinggi untuk daging buatan. Sebab, daging buatan memungkinkan manusia mendapatkan lebih banyak daging tanpa harus merusak hutan, atmosfer, atau membunuh hewan.
+Jika teknologi ini benar-benar diterapkan dalam skala besar, maka manusia dapat menghemat banyak sumber daya alam yang pada awalnya digunakan untuk memelihara ternak dan pada saat yang sama, dapat memenuhi kebutuhan konsumsi daging yang semakin meningkat. Thanks to the new technology.</t>
+  </si>
+  <si>
+    <t>Strategi Google Duo Bertahan di Pasar Aplikasi Pesan</t>
+  </si>
+  <si>
+    <t>Persaingan aplikasi pesan instan kian sengit seiring dengan kemajuan fitur di tiap aplikasi. Pekan lalu, BlackBerry Messenger alias BBM yang pernah menjadi salah satu aplikasi pesan terpopuler, layanannya akan segera ditutup.
+Google, sebagai salah satu penyedia layanan pesan instan lewat aplikasi Google Duo, punya cara sendiri dalam menghadapi persaingan antar aplikasi pesan.
+Sebagai salah satu penyedia layanan pesan, Google punya cara sendiri dalam menghadapi ketatnya persaingan aplikasi messaging ini. Lewat aplikasi Google Duo, raksasa teknologi itu mengatakan sama sekali tidak memikirkan kompetisi.
+Product Communication Manager Google Indonesia, Felicia Wienathan, menjelaskan Google hanya berfokus pada prinsip perusahaan untuk terus mengembangkan layanan-layanannya agar menjadi platform yang bisa diandalkan. Ia menjelaskan perusahaan tidak pernah pusing memikirkan bagaimana cara berkompetisi atau siapa lawan mereka.
+“Kita percaya semua product itu punya market-nya sendiri jadi kita enggak mau jadi kompetitif. Kita enggak kaya gitu, semuanya punya hak untuk thrive, semuanya punya hak untuk berkembang masing-masing. Tapi kalau dari kita, sebisa mungkin do our best untuk develop product-nya, yang relevan dan menjawab,” ujar Felicia
+Ia juga menambahkan bahwa Google memiliki fokus untuk memberikan layanan yang relevan kepada masing-masing pasar di setiap negara. Oleh karena itu, seiring dengan kehadiran layanan Google Duo yang semakin cocok dengan kebiasaan masyarakat, maka dengan sendirinya layanan tersebut bisa mendapatkan lebih banyak perhatian.
+“Kita percaya kalau produk kita bagus dan semakin relevan ya semakin membantu teman-teman dalam menjawab problem dengan sendirinya tingkat pemakaian akan naik. Itu sudah prinsip dasar kita. Jadi kita enggak pernah set target harus berapa,” tambahnya.
+Di Indonesia sendiri, Google baru saja meluncurkan empat fitur baru pada Google Duo, yakni grup video call, fitur hemat kuota, Duo for Web, dan pesan video. Keempat fitur tersebut hadir berdasarkan riset kebiasaan dan kebutuhan netizen Indonesia dalam berinteraksi lewat obrolan video.
+Felicia juga mengatakan bahwa Indonesia menjadi salah satu pasar Google Duo yang paling penting. Oleh karena itu, fitur Group Video Chat pertama kali hadir di Indonesia. Hal itu juga didasari oleh penggunaan Google Duo di Indonesia yang menduduki peringkat ketiga secara global setelah Amerika Serikat dan India.
+“Setiap negara punya kebutuhan yang berbeda, setiap negara punya masalah yang berbeda, terus juga behavior pengguna berbeda. Makanya kita enggak pernah pukul rata. Makanya kenapa di Indonesia kita bisa bilang group call adalah market yang pertama,” ujarnya.</t>
+  </si>
+  <si>
+    <t>Begini Tampilan Bengkel Mobil di Masa Depan</t>
+  </si>
+  <si>
+    <t>Perkembangan teknologi otomotif tidak hanya terjadi pada sektor kendaraannya saja, namun juga pada sektor pendukung lainnya seperti bengkel. 
+Baru-baru ini, dilansir dari Motor1, sekelompok ahli industri melakukan kolaborasi untuk menciptakan bengkel masa depan yang banyak mengandalkan teknologi robotik.
+Hal tersebut didasari oleh sebuah penelitian yang dilakukan perusahaan asuransi Direct Line yang menemukan terdapat 59 persen dari 2.000 orang dewasa di Inggris enggan bekerja sebagai mekanik di bengkel. Sementara hanya 26 persen orang yang mempertimbangkan untuk bekerja sebagai mekanik.
+Oleh karena itu, Direct Line bekerja sama dengan beberapa pakar industri mencoba menarik minat setiap orang untuk bekerja di bengkel dengan menawarkan desain bengkel di masa depan yang canggih dan kaya akan teknologi. 
+Direct Line pun mencoba memberikan gambaran terkait bengkel di masa depan yang hadir dengan banyak mengandalkan teknologi holografik dan augmented reality (AR).
+ “Sangat menarik untuk berpikir bahwa teknologi holografik dan AR, pencetakan 3D canggih, akan memungkinkan mekanik menemukan penyebab kerusakan dengan cepat. Kami juga berharap gambaran bengkel masa depan ini dapat menarik minat siapapun khususnya kaum muda, untuk berkarier dalam sektor ini,” tutur Felicity Harer. 
+Dari gambar yang dirilis oleh Direct Line, terlihat bengkel di masa depan diprediksi akan banyak mengandalkan robotik canggih yang dapat mempermudah kinerja manusia, seperti memindahkan mobil, mencetak bagian-bagian mobil secara 3 dimensi, serta penggunaan laser sebagai alat pengelasan.
+Terlihat juga di masa depan bahwa area bengkel akan berada didalam ruangan dan menyatu dengan area lainnya. Selain itu, diharapkan juga di masa depan bahwa bengkel akan tampil bersih dan nyaman.
+ “Kami juga berharap gambaran bengkel masa depan ini dapat menarik minat siapapun khususnya kaum muda, untuk berkarier dalam sektor ini,” sambung Felicity Harer</t>
+  </si>
+  <si>
+    <t>Instagram Stories Kini Punya Fitur Kuis Pilihan Ganda</t>
+  </si>
+  <si>
+    <t>Platform media sosial populer Instagram kembali menghadirkan fitur menarik untuk penggunanya. Kali ini, mereka menghadirkan sebuah fitur baru bernama stiker kuis yang sudah bisa digunakan di Stories.
+Fitur stiker kuis memungkinkan pengguna untuk mengajukan pertanyaan pilihan ganda kepada para pengikut mereka melalui Instagram Stories. Fitur ini merupakan peningkatan dari stiker polling yang mendapat sambutan hangat dari para pengguna. 
+Untuk menggunakan fitur stiker kuis di Instagram Stories sangat mudah, berikut caranya.
+- Ambil foto atau video yang ingin dibagikan dalam Stories
+- Tambahkan stiker kuis dari galeri stiker yang dapat diakses dengan menekan ikon smiley berbentuk kotak di sudut kanan atas layar
+- Pilih warna stiker sesuai keinginan
+- Beri nama pada kuis dan masukkan dua hingga empat pilihan jawaban
+- Sebagai pembuat kuis, kamu akan diminta untuk memasukkan jawaban yang benar saat membuat kuis tersebut
+- Bagikan kuis dalam Stories dan kamu bisa melihat jawaban teman-teman atau pengikut melalui daftar penonton
+- Followers-mu juga bisa melihat jawaban yang benar setelah memberikan jawaban dalam kuis tersebut
+Hadirnya fitur ini dapat meningkatkan interaksi antar pengguna Instagram di Stories. Sejak diluncurkan pada 2016, Stories menjadi salah satu fitur terfavorit yang ada di Instagram hingga kini. Menurut Instagram, Stories telah digunakan oleh 500 juta pengguna secara global setiap harinya.
+Fitur stiker kuis melengkapi rangkaian fitur-fitur interaktif di Instagram Stories, di mana sebelumnya telah ada stiker polling, stiker pertanyaan, dan emoji slider.</t>
+  </si>
+  <si>
+    <t>Maeslantkering: Teknologi Kolosal yang Jadi Keajaiban Dunia Modern</t>
+  </si>
+  <si>
+    <t>Belanda merupakan negara yang secara geografis memiliki daratan yang lebih rendah dari permukaan laut. Sekitar 20 persen wilayah daratannya berada di bawah permukaan laut, sedangkan, 50 persen daratan Belanda hanya berada 1 meter di atas ketinggian permukaan laut.
+Lantaran kondisi geografis tersebut, Belanda sangat rentan terhadap banjir. Maka, merancang sebuah cara untuk mengendalikan banjir pun merupakan keharusan.
+Sejarah mencatat, banjir terbesar pernah terjadi di Belanda pada tahun 1958. Tragedi ini menewaskan 1.835 orang, membuat 70.000 orang terlantar, dan menyebabkan kerusakan hingga mencapai 1 milliar gulden.
+Belajar dari pengalaman itu, Belanda dengan serius mulai membangun sebuah teknologi untuk mencegah banjir. Mulai dengan membangun serangkaian bendungan, pintu air, tanggul, dan penghalang badai di wilayah delta Rhine-Meuse-Scheldt. Ketiga wilayah ini adalah daerah yang rentan terhadap luapan air dari Laut Utara.
+Selain membangun antisipasi di ketiga delta tersebut, Belanda pun membangun sebuah infrastruktur dengan teknologi tinggi di dekat pelabuhan Rotterdam. Pembangunan ini sempat menjadi kontroversi lantaran pembangunan izinnya sulit didapat. Hal ini disebabkan karena keengganan Belanda untuk menganggu pelabuhan Rotterdam yang menjadi pelabuhan terbesar di Eropa saat itu. Namun, karena kepentingannya berkaitan dengan banyak nyawa, maka izin pembangunan pun dikeluarkan.
+Di sanalah, sebuah infrastruktur dengan teknologi yang luar biasa dibangun sebagai kunci pertahanan bagi pelabuhan Rotterdam dan masyarakat Belanda dari bencana banjir. Maeslantkering merupakan infrastruktur dengan teknologi penghalang gelombang badai dan gelombang air laut agar tidak mampu memasuki daratan.
+Maeslantkering terdiri dari dua pintu ayun besar yang berfungsi menahan air laut. Panjang masing-masing pintunya setara dengan tinggi Menara Eiffel, dengan berat hampir empat kali lipat dari Menara Eiffel. Dua pintu besar ini terdiri dari ruas baja yang memiliki panjang masing-masing ruas 210 meter dan tinggi 22 meter; kedua pintu ini dapat bergerak sejauh 237 meter dengan gerakan mengayun.
+Ketika keadaan normal, pintu Maeslantkering akan terbuka selebar 360 meter agar dapat dilewati sebuah kapal. Pintu ini lantas akan secara otomatis tertutup ketika merasakan gelombang badai dan air laut naik sekitar 3 meter.
+Maeslantkering yang selesai dibangun pada 1997 dinonaktifkan setiap sepuluh tahun sekali di bulan November (seperti yang dilakukan pada November 2007 dan November 2017). Selain itu, tiap setahun sekali Maeslantkering ditutup untuk pemeriksaan dan perbaikan, dilakukan pada tiap bulan Oktober tepat sebelum awal musim badai menimpa Belanda.
+Manusia selalu dapat melakukan hal yang menakjubkan untuk mengatasi setiap masalahnya. Sebagai bagian upaya untuk bertahan hidup, Maeslantkering merupakan salah satu bukti betapa menakjubkannya kecerdasan yang dimiliki oleh manusia. Karena kecanggihan tekonologi dan perannya, Maeslantkering dinobatkan sebagai ‘Tujuh Keajaiban Dunia Modern’ oleh Perhimpunan Insinyur Sipil Amerika Serikat.</t>
+  </si>
+  <si>
+    <t>Menjajal Smart Translator, Alat Penerjemah Percakapan Lintas Bahasa</t>
+  </si>
+  <si>
+    <t>Kamu mungkin pernah merasa kesulitan untuk berkomunikasi dengan orang asing pengguna bahasa yang tidak kamu kuasai. Misalnya saja ketika kamu sebagai orang Indonesia bertemu dengan seorang China yang hanya bisa berbahasa Mandarin.
+Jika kalian berdua sama-sama bisa berbahasa Inggris, percakapan kalian bisa tertolong dan terhubung. Tapi bila salah satu dari kalian tidak bisa berbahasa Inggris dan tak ada satu orang pun di antara kalian berdua yang menguasai bahasa Indonesia dan Mandarin sekaligus, niscaya tidak akan ada percakapan yang terjalin. 
+Dulu, dalam kondisi demikian, kamu dan lawan bicaramu tentu sangat membutuhkan orang lain sebagai penerjemah percakapan di antara kalian. Tapi kini, sudah ada alat yang bisa menggantikan posisi seorang penerjemah tersebut. Bahkan, alat ini bisa memfasilitasi percakapan dengan puluhan bahasa sekaligus, termasuk enam bahasa internasional resmi yang diakui Perserikatan Bangsa-Bangsa (PBB) serta bahasa Indonesia.
+Alat yang bisa menjadi penerjemah percakapan lisan ini bernama Smart Translator. Alat ini mejeng di pameran bertajuk Global Sources Consumer Electronics di Hong Kong sejak 10 sampai 14 April 2019 lalu. 
+Smart Translator ini dibuat oleh sebuah perusahaan bernama Shenzhen Junjiahao Technology Co., Ltd. Sebagaimana namanya, perusahaan itu berbasis di Shenzhen, China. 
+Perusahaan asal China itu telah menciptakan setidaknya lima macam alat penerjemah pintar. Mereka memberikan nama alat-alat itu Smart Translator T18, Smart Translator T20, Smart Translator T2S, Smart Translator T22, dan Smart Translator M1.
+Saat mengunjungi pameran teknologi akbar Global Sources Consumer Electronics 2019, kumparan berkesempatan melihat kelima Smart Translator itu mejeng di booth atau stan milik Shenzhen Junjiahao Technology. Bahkan, kumparan juga diperbolehkan menjajal langsung alat pintar tersebut. 
+Cara memakai alat itu cukup mudah. Cukup nyalakan alat, lalu pilih bahasa-bahasa yang mau digunakan dalam pilihan menu di layarnya. Setelah itu, kamu tinggal memencet salah satu tombol bergambar mikrofon di alat untuk merekam suaramu. Tahan pencetan itu sampai kamu selesai berbicara. 
+Alat yang berfungsi membantu percakapan orang-orang dari lintas negara dan lintas bahasa itu secara otomatis akan merekam suaramu dan menerjemahkannya ke dalam tulisan maupun suara. 
+Setelah mendengar dan membaca ucapanmu telah diterjemahkan alat ke dalam bentuk teks maupun audio, lawan bicaramu bisa gantian memakai alat itu dengan memencet tombol lain yang juga bergambar mikrofon di alat. Tahan pencetan pada tombol selama berbicara.
+Dan hasilnya, voila, kamu juga bisa mendengar ucapan lawan bicaramu yang sudah diterjemahkan oleh alat itu ke dalam bentuk tulisan di layar alat maupun suara yang dikeluarkan oleh si alat. 
+Kamu bisa terus berbicara dengan lawan bicaramu dengan bantuan alat itu selama berjam-jam. Tipe alat yang kumparan jajal langsung kala itu adalah Smart Translator T18 yang bisa menerjemahkan 30 bahasa dan Smart Translator T22 yang bisa menerjemahkan 50 bahasa. 
+CEO Shenzhen Junjiahao Technology, Tim Chen, menjelaskan kedua alat ciptaannya itu menggunakan baterai yang bisa di-charging. “Cukup men-charging baterainya selama tiga jam, alat ini bisa bertahan selama dua hari,” kata Tim Chen kepada kumparan. 
+Khusus untuk Smart Translator T22, Tim Chen menuturkan bahwa ada tipe dari alat tersebut yang juga bisa menerjemahkan tulisan atau teks yang tertulis di medium apa pun. Ada kamera di belakang alat yang berfungsi untuk men-scan tulisan yang ingin diterjemahkan.
+Jadi, selain merekam dan menerjemahkan suara, tipe lebih canggih dari alat itu juga bisa digunakan untuk men-scan tulisan berbahasa asing yang kita jumpai. Kemudian, teks yang sudah di-scan maupun diterjemahkan ke dalam pilihan 50 bahasa yang kita mau, akan muncul di layar alat. 
+Kepada kumparan, Tim Chen membeberkan harga satuan Smart Translator T22 itu adalah sekitar 39 dolar AS atau sekitar Rp 546 ribu. Sementara harga satuan dari tipe Smart Translator T22 yang juga bisa menerjemahkan tulisan adalah sekitar 45 dolar AS atau sekitar Rp 630 ribu. 
+Cukup canggih dan murah, bukan? Sayangnya, alat ini baru bisa berfungsi untuk menerjemahkan suara maupun tulisan jika telah terhubung dengan koneksi internet, misalnya Wi-Fi hotspot atau tethering.
+“Ya, masih harus online. Kami sedang merancang Smart Translator versi offline untuk masa depan,” ujar Tim Chen. 
+Selain Shenzhen Junjiahao Technology, beberapa perusahaan lain juga memproduksi alat penerjemah pintar seperti ini dengan berbagai macam merek, misalnya Transay dan ili Translator. 
+Alat semacam ini sudah cukup banyak digunakan oleh para turis internasional. Permintaan yang meningkat atas alat macam ini membuat banyak perusahaan berlomba-lomba memproduksi barang sejenis dengan berbagai keunggulan masing-masing, mulai dari segi harga hingga fitur. 
+Global Sources, perusahaan media B2B (business to business) yang mengadakan pameran di Hong Kong ini, berencana membawa pameran teknologi serupa ke Jakarta pada 5-7 Desember mendatang. Semoga saja Shenzhen Junjiahao Technology juga bakal mengisi booth dan memamerkan produk Smart Translator mereka dalam pameran di Jakarta nanti.</t>
+  </si>
+  <si>
+    <t>Tokopedia Rilis Fitur ByMe untuk Promosi Barang via Influencer</t>
+  </si>
+  <si>
+    <t>Perusahaan e-commerce marketplace Tokopedia kembali memperkenalkan fitur baru dan pertama di Indonesia bernama ByMe. Ini adalah fitur yang memungkinkan penjual di Tokopedia untuk mempromosikan produknya melalui pihak ketiga, atau perusahaan menyebutnya ByMe Influencer.
+Influencer di sini tidak dibatasi oleh Tokopedia. Siapa pun, mulai dari teman, keluarga, hingga tokoh ternama, bisa memanfaatkan fitur ByMe untuk jadi influencer yang merekomendasikan produk favorit pilihannya.
+"Tokopedia ByMe memudahkan pembeli mendapatkan barang rekomendasi dari role model mereka, baik public figure maupun orang terdekat. Kami percaya rekomendasi dari lingkungan sekitar sangat penting dalam perihal membeli segala kebutuhan," ucap Business Tribe Lead for Category and Content Tokopedia, Cynthia Limin, dalam pernyataan resmi, Senin (22/4).
+Pengguna yang menjadi influencer akan mendapatkan komisi dari setiap pembelian yang terjadi di halaman profilnya. Nilai komisinya ini ditentukan sendiri oleh penjual dan itu dibayar ketika barang telah terjual.
+Selain mengumumkan fitur baru ByMe, Tokopedia juga memperkenalkan 13 orang ByMe Icon, selebritas, dan tokoh publik yang mewakili ByMe Influencer. Mereka adalah Boy William, Arief Muhammad, Atta Halilintar, Jess No Limit, Jerome Polin, Tasya Farasya, Rachel Vennya, Ria Ricis, Salshabilla Adriani, Titan Tyra, Sandra Dewi, Cinta Laura, dan Jessica Iskandar.
+"Saya sangat antusias memanfaatkan Tokopedia ByMe. Melalui fitur ini, saya bisa merekomendasikan produk favorit pilihan saya dan berinteraksi dengan fans dan follower yang suka dengan produk yang saya rekomendasikan," kata Cinta Laura.
+Fitur ByMe ini sekarang sudah tersedia di aplikasi Tokopedia, tepatnya di bawah pilihan menu kategori. Klik fitur tersebut untuk menampilkan koleksi rekomendasi produk populer dari para influencer, lengkap dengan harga dan tautan menuju barang yang dipromosikan.</t>
+  </si>
+  <si>
+    <t>Vatikan Akan Tampilkan Tangga yang Digunakan Yesus Jelang Penyaliban</t>
+  </si>
+  <si>
+    <t>Untuk pertama kalinya dalam 300 tahun, Vatikan akan memperlihatkan tangga suci-Nya yang telah disimpan selama kurang lebih 300 tahun. Tangga yang dikenal sebagai Scala Sancta tersebut diyakini sebagai tangga yang digunakan Yesus menjelang penyaliban. 
+Tangga suci tersebut diyakini diambil dari rumah Pontius Pilatus di Yerusalem pada abad keempat dan dibawa ke Roma oleh St. Helena. Terdiri dari 28 anak tangga, Scala Sancta kabarnya dulu menjadi tangga yang dilalui Yesus saat ia diseret menuju hadapan Pontius Pilatus untuk dihakimi.
+Oleh karena itu, Vatikan meyakini bahwa Scala Sancta di masa lalu pernah terkena tetesan noda, peluh, dan darah Yesus saat ia disiksa oleh prajurit, sebelum akhirnya ia digiring ke Bukit Golgota dan disalibkan. Dilansir Travel and Leisure, Scala Sancta dalam bahasa Latin diartikan sebagai tangga. 
+Tangga marmer itu selama 300 tahun belakangan disimpan dengan cara ditutupi menggunakan tangga kayu. Penutupan itu dilakukan pada tahun 1723 oleh Paus Innocent XIII, ketika ia melihat bahwa ada ribuan peziarah yang datang dan berkunjung ke Vatikan, termasuk ke Scala Sancta. 
+Scala Sancta dibuka untuk umum setelah proyek restorasi dilakukan selama setahun. Karena merupakan hal yang jarang dan istimewa, jangan heran jika para peziarah yang mendatangi Vatikan dan mengunjungi Scala Sancta akan naik dengan cara berlutut, sambil mencium tempat-tempat bernoda darah yang kini ditandai dengan salib abad pertengahan. 
+Tak jarang para peziarah berlinang air mata ketika menghayati setiap pengorbanan yang pernah terjadi di tangga tersebut. Terutama ketika para pengunjung datang di Minggu Paskah. 
+"Jika Anda memikirkan fakta bahwa Yesus ada di sini, dan di mana ia ditahan dan di mana ia menderita, itu sangat emosional. Sebenarnya saya sudah pernah berziarah dan melewati tangga ini sebelumnya, tapi saat itu Sancta Sanctorum masih ditutupi dengan kayu," kata salah satu peziarah pada Associated Foreign Press, seperti dikutip dari Travel and Leisure.
+Selain dapat melihat tangga marmer tanpa penutup, pengunjung juga dapat menikmati lukisan yang baru dipugar di sekitar dinding dan langit-langit. Lalu setelah tiba pada bagian atas, kamu bisa memasuki Sancta Sanctorum. 
+Sancta Sanctorum dulunya adalah ruangan yang dijadikan kapel pribadi Paus dan berisi peninggalan orang-orang suci. Dengan dibukanya Scala Sancta, kunjungan ke Vatikan akan terasa semakin berkesan, terutama bagi umat Katolik dan Kristen yang melakukan wisata religi untuk memaknai pengorbanan Yesus Kristus sebagai Juruselamat.</t>
+  </si>
+  <si>
+    <t>Kim Kardashian Ungkap Alasan Susah Move On dari Bali</t>
+  </si>
+  <si>
+    <t>Tahun 2018 lalu, keluarga besar Kim Kardashian diketahui menikmati liburan mereka di Pulau Bali. Kala itu, Kim mengajak serta Khloe dan Kourtney Kardashian, serta anak dan keponakannya untuk berlibur ke sana.
+Mereka diketahui menginap di salah satu resor mewah yang ada di pinggir pantai Pulau Dewata dan mengunjungi beberapa tempat wisata ikonik di sana, seperti pura. Bahkan, liburan mereka itu ditayangkan di episode terbaru reality show 'Keeping Up With The Kardashian' atau 'KUWTK'.
+Saking terpesonanya dengan keindahan alam, budaya, dan suasana Bali, Kim Kardashian belum lama ini kembali menikmati liburannya di Bali, dan baru kembali minggu lalu. Tidak sendirian, kali ini ia mengajak serta sang suami, Kanye West untuk menikmati alam Bali dengan menginap di Four Seasons Resort, di Sayan, Ubud, Gianyar. 
+Keduanya juga dilaporkan menikmati beragam aktivitas di salah satu pulau paling indah di dunia itu, seperti memberi makan gajah dan menyaksikan tarian tradisional Bali. Menariknya, Kim sengaja mengajak Kanye yang sebelumnya tidak pernah ikut berlibur ke sana, untuk menunjukkan pesona keindahan yang ditawarkan Pulau Bali.
+Hal ini juga ia ungkapkan dalam unggahan foto di Instagram pribadinya, @kimkardashian. Dalam foto yang diunggahnya, Kim tampak berpose dengan latar belakang persawahan di Ubud, lengkap dengan rasa kagumnya akan tempat ini.
+"Malam ini di KUWTK kami pergi ke Bali, tapi saya baru kembali ke sana minggu lalu. Bali adalah salah satu tempat paling indah yang pernah saya kunjungi, sampai saya harus mengajak Kanye ke sana untuk mendapatkan pengalaman budaya dan merasakan suasana Bali, tempat paling menenangkan di dunia," tulis Kim.
+Sementara itu, sang adik Khloe Kardashian juga tak kalah terpesona dengan keindahan Pulau Dewata. Saat berlibur ke sana, ia mengunggah beberapa foto di Instagramnya dan mengatakan bahwa matahari terbenam di Bali merupakan yang terindah yang pernah dilihatnya.
+Tertarik liburan ke Bali seperti keluarga Kim Kardashian?</t>
+  </si>
+  <si>
+    <t>Penerbangan Bebas Plastik Etihad Airways untuk Peringati Hari Bumi</t>
+  </si>
+  <si>
+    <t>Hari Bumi yang diperingati pada tanggal 22 April, membuat banyak pihak berlomba-lomba untuk menjaga bumi. Salah satunya dengan cara mengurangi penggunaan plastik sekali pakai seperti yang dilakukan maskapai asal Uni Emirates Arab, Etihad Airways. 
+Dalam kesempatan itu, Etihad merayakannya dengan melakukan penerbangan selama 14 jam, menggunakan EY484. Penerbangan panjang itu berangkat dari Abu Dhabi tanggal 21 April dan tiba di Brisbane, Australia, pada tanggal 22 April.
+Dalam penerbangannya, Etihad menghilangkan 95 persen penggunaan plastik sekali pakai. Hal ini sebagai langkah upaya untuk lebih ramah lingkungan.
+Cangkir, peralatan makan, piring, tas headset, dan sikat gigi diganti dengan bahan yang lebih ramah lingkungan. Misalnya saja cangkir kopi dari Cupffee yang terbuat dari biji-bijian dan bisa dimakan. 
+Kemudian, pasta gigi dibuat dalam bentuk tablet yang dapat dikunyah dan ditempatkan dalam kardus daur ulang. Serta sikat gigi yang disediakan terbuat dari jerami gandum.
+Makanan di kelas ekonomi juga dibawa di atas nampan dengan wadah aluminium yang dapat digunakan kembali. Untuk makanan seperti roti dihidangkan dalam kantong kertas dan disiapkan pula peralatan makan yang terbuat dari logam. 
+Selain upaya untuk lebih ramah lingkungan, hal ini juga merupakan salah satu rencana Etihad untuk mengurangi plastik sekali pakai hingga 80 persen pada 2022 mendatang. 
+“Ada kekhawatiran penggunaan plastik yang berlebihan, karena dapat memakan waktu ribuan tahun untuk terurai. Kami dapat menghapus 27 juta plastik sekali pakai dari layanan penerbangan kami dalam setahun, " CEO Etihad Aviation Group Tony Douglas, seperti dikutip dari Travel and Leisure. 
+Etihad Airways selama ini menghabiskan 50 kilogram plastik dalam sekali penerbangan. Namun, pada akhir 2019, Etihad berencana untuk memangkas lebih dari 100 ton plastik sekali pakai di penerbangannya.
+Sementara itu, Etihad Airways bukan satu-satunya maskapai yang mengambil langkah untuk menjaga lingkungan. Ada pula Delta Airlines yang juga berkontribusi untuk Hari Bumi.</t>
+  </si>
+  <si>
+    <t>Bandara Sam Ratulangi Segera Miliki Terminal Khusus Internasional</t>
+  </si>
+  <si>
+    <t>Untuk mendukung pengembangan pariwisata Sulawesi Utara, Bandara Sam Ratulangi Manado diproyeksikan akan segera memiliki terminal khusus internasional.
+Hal ini diungkapkan oleh Menpar Arief Yahya yang mengatakan bahwa pariwisata Sulut perlu didukung unsur 3 A (atraksi,amenitas, dan aksesibilitas) yang memadai, khususnya aksesibilitas Bandara Sam Ratulangi Manado.
+Selain pembangunan terminal khusus internasional, sejumlah fasilitas Bandara Sam Ratulangi Manado juga akan ditingkatkan, meliputi penambahan runway, taxiway, aircraft parking stand, terminal and airspace capacity. 
+Hal tersebut dilakukan untuk mengantisipasi peningkatan volume atau lonjakan kunjungan wisatawan yang masuk ke Manado.
+"Sulut itu memungkinkan karena atraksinya kelas dunia. Airportnya juga harus kelas dunia, setiap bandara yang dibangun panjangnya harus 3 ribu meter," kata Arief Yahya dalam sambutannya dalam acara Launching CoE Sulut 2019 di Balairung Soesilo Soedarman, Gedung Sapta Pesona Jakarta, Kantor Kementerian Pariwisata, Senin (22/4). 
+Selain itu, penambahan rute penerbangan baru juga diharapkan dapat menambah kunjungan wisatawan ke Sulut. Pemerintah berencana untuk membuka penerbangan langsung Manado-Davao.
+"Hal yang paling penting adalah mengembangkan penerbangan langsung atau regular flight dari Great China, Korea, Jepang, ASEAN sebagai pasar utama, selain membuka rute baru dari Davao (Filipina) adalah pasar potensial," kata Arief Yahya.
+Hal senada juga disampaikan oleh Kepala Dinas Pariwisata Sulut yaitu Daniel Mawengkan yang mengatakan bahwa saat ini pengembangan terminal khusus internasional di Bandara Sam Ratulangi Manado sedang dilakukan.
+"Sudah mulai dilakukan untuk pengembangan international airport, kalau sudah selesai nanti kita akan punya tambahan terminal lagi yaitu terminal 1 untuk internasional. Bandara Manado saat ini panjangnya itu 2.750 meter tinggal menambah 250 meter lagi agar bisa didarati oleh pesawat berbadan lebar," ungkap Daniel.
+Ketika kumparan mengkonfirmasi ke Angkasa Pura I, Pihak AP I masih melakukan koordinasi lebih lanjut terkait update mengenai terminal khusus internasional di Bandara Sam Ratulangi Manado.
+Dengan pengembangan Bandara Sam Ratulangi Manado, nantinya diharapkan pariwisata di Sulut juga akan semakin meningkat. Sebab diketahui, pariwisata di Sulut khususnya Kota Manado memiliki pertumbuhan tertinggi dalam empat tahun terakhir yakni tumbuh sebesar 6 kali lipat atau 600 persen.
+"Untuk tahun ini kita menargetkan 150 ribu kunjungan wisman dan 2 juta wisatawan nusantara," tambah Daniel. 
+Menpar Arief Yahya juga menjelaskan, wisatawan mancanegara (wisman) yang berkunjung ke Sulut, terutama ke Manado dan Bitung pada 2015 sebanyak 20 ribu, tahun 2016 meningkat menjadi 40 ribu atau dua kali lipat. Selanjutnya pada 2017 sebanyak 80 ribu, dan tahun 2018 meningkat menjadi 120 ribu. Sedangkan tahun lalu jumlah kunjungan wisatawan nusantara mencapai 1,9 juta.</t>
+  </si>
+  <si>
+    <t>Kalahkan Islandia, Australia Jadi Negara Paling Aman untuk Perempuan</t>
+  </si>
+  <si>
+    <t>Selain mempertimbangkan budaya, alam, dan kuliner, memasukan faktor keamanan pun tak kalah penting saat memutuskan lokasi untuk traveling. Sebab, bila berkunjung ke negara dengan tingkat kriminalitas tinggi akan membahayakan keamanan diri sendiri.
+Tapi, tahukah kamu negara mana saja yang masuk sebagai negara paling aman terlebih untuk perempuan?
+Sebuah organisasi riset pasar global yang berbasis di Johannesburg, New World Wealth, baru saja merilis 2019 Global Wealth Migration Review. Sebenarnya, pihaknnya menilai perilaku orang-orang kaya di dunia dengan mempertimbangkan beberapa faktor, antara lain pertumbuhan ekonomi, kebebasan pers dan keselamatan wanita.
+Hasilnya mengeluarkan Australia sebagai negara teraman di dunia, terlebih untuk perempuan. Kemudian, disusul oleh Malta, Islandia, Selandia Baru, dan Kanada.
+"Keselamatan wanita adalah salah satu cara terbaik untuk mengukur potensi pertumbuhan kekayaan jangka panjang suatu negara, dengan korelasi lebih dari 90 persen antara pertumbuhan kekayaan bersejarah dan tingkat keamanan wanita," jelas laporan tersebut, seperti dilansir dari This Is Insider.
+"Ini berarti bahwa pertumbuhan kekayaan didorong oleh tingkat keselamatan wanita yang kuat di suatu negara," lanjut laporan itu.
+Ya, negara yang masuk dalam lima besar juga menjadi tujuan populer para kaum atas. Dari 195 negara, hanya 58 saja yang memiliki data statistik kejahatan.
+Hasil analisis ini dirilis dengan mempertimbangkan tingkat pemerkosaan, perbudakan, perdagangan manusia, dan serangan terhadap perempuan selama setahun terakhir. Dan sebagian besar negara yang terdaftar juga mengalami pertumbuhan kekayaan yang kuat dalam 20 tahun terakhir.
+Sementara kota-kota besar di Eropa, seperti London dan Paris justru mengalami penurunan keselamatan wanita dalam beberapa tahun terakhir.
+Tak hanya menjadi negara teraman untuk perempuan versi Global Wealth Migration Review saja, Australia juga pernah masuk dalam beberapa kategori lain. Sebut saja The Global Peace Index 2018 menempatkan Australia sebagai negara teraman ke-13, kemudian Credit Suisse juga menaruh Australia sebagai negara 'berisi' orang terkaya di dunia.
+Selain menjadi negara teraman di dunia untuk perempuan, Australia juga memiliki segudang destinasi yang patut untuk dikunjungi. Seperti Perth, South West, dan Coral Coast menjadi tiga destinasi di Australia Barat yang ramah keluarga.
+Sementara untuk musim gugur, traveler bisa menjatuhkan pilihan ke Perth Hills Orchards, Margaret River, Pinnacles dan Cervantes, hingga Blackwood River. Sedangkan untuk penyuka road trip bisa berkendara ke Rockingham, Mandurah, Freemantle, The Pinnacles, atau Swan Valley and Perth Hills.
+Sudah siap menjelajah Australia?</t>
+  </si>
+  <si>
+    <t>Awal Tahun 2019, Lion air Catat Kinerja Tepat Waktu Hingga 85 Persen</t>
+  </si>
+  <si>
+    <t>Maskapai bersimbol singa merah, Lion Air kerap kali diasosiasikan sebagai maskapai penerbangan yang 'rajin' delay atau menunda penerbangan. Penundaan ini membuat para penumpang mau tak mau berangkat dan tiba lebih lama akibat bergesernya waktu keberangkatan. 
+Harga tiketnya yang relatif lebih murah ketimbang maskapai lainnya, mau tak mau jadi alasan para penumpang untuk merasa keterlambatan pesawat sebagai hal yang wajar. Namun, ternyata ada hal menarik yang terjadi pada periode Januari-Maret 2019. 
+Lion Air nyatanya mencatatkan kinerja ketepatan waktu (on time performance atau OTP) hingga 85,97 persen dari total frekuensi terbang 36 ribu kali dengan rata-rata 400-420 penerbangan per hari. Pencapaian ini menunjukkan bahwa rata-rata kinerja Lion Air yang tertinggi, dan bahkan meningkat hingga lebih dari 20 persen dibandingkan dengan tahun 2018 yang hanya mencapai 65-70 persen. 
+Data OTP merupakan ketepatan pesawat saat kedatangan (arrival) atau keberangkatan (departure) dalam waktu kurang dari 15 menit dari jadwal yang ditentukan. Penghitungan tersebut dilakukan berdasarkan laporan Integrated Operation Control Center (IOCC) Lion Air Group secara tepat waktu dan bersamaan (real time) pada triwulan pertama 2019. 
+Menurut keterangan resmi yang diterima kumparan, peningkatan kinerja terkait ketepatan waktu tersebut merupakan upaya Lion Air untuk mewujudkan komitmen menghadirkan layanan yang terbaik pada pelanggan. Tak hanya berangkat tepat waktu, Lion Air juga berupaya agar para pelanggan bisa merasakan kenyamanan saat terbang dengan mengutamakan faktor keselamatan dan keamanan penerbangan (safety first). 
+Lion Air juga mengungkapkan, bahwa seluruh lini maskapainya akan selalu patuh dan menerapkan budaya keselamatan (safety culture). Guna memastikan kelancaran penerbangan setiap hari dan berusaha menjaga tingkat ketepatan waktu, sejalan menjawab pergerakan penumpang dan pesawat, Lion Air akan senantiasa melakukan koordinasi intensif bersama pihak terkait. 
+Caranya dengan menjalankan strategi yang tepat agar operasional berada pada level terbaik secara konsisten, sehingga berdampak positif terhadap kualitas layanan dan tingkat ketepatan waktu penerbangan. Lion Air mengaplikasikan standar prosedur pengoperasian pesawat udara menurut aturan dan petunjuk dari pabrik pembuat pesawat, termasuk pemeliharaan pesawat, pengecekan komponen pesawat, pelatihan awak pesawat, serta hal lainnya. 
+Pengoperasian pesawat milik Lion Air Grup juga mengikuti prosedur yang diterapkan oleh DKPPU (Direktorat Kelaikudaraan dan Pengoperasian Pesawat Udara), Kementerian Perhubungan RI. Untuk mengoptimalkan pesawat, Lion Air melakukan pengelolaan dengan sistem rotasi (pergerakan pesawat) yang disesuaikan dengan jarak pada rute, infrastruktur bandar udara, tingkat keterisian penumpang (load factor), dan lainnya. 
+Lion Air menggunakan sistem yang terstruktur dan koordinasi yang berkesinambungan antara perawatan pesawat (maintenance), tim operasional, serta keputusan yang cepat (quick action), guna menentukan rotasi baru apabila ada hambatan yang terjadi di lapangan (irregularities). Hal ini dilakukan untuk mengurai dampak keterlambatan penerbangan.
+Untuk pengaturan mekanisme operasi pesawat, Lion Air memiliki utilisasi 8-9 jam per hari, rata-rata enam pesawat menjalani perawatan (schedule maintenance), serta rata-rata lima pesawat sebagai cadangan (stand by). Hingga saat ini, Lion Air melayani jaringan ke lebih dari 51 kota tujuan domestik dan internasional dengan rata-rata 400 frekuensi penerbangan per hari. 
+Seiring meningkatkan kualitas layanan melalui OTP, Lion Air menawarkan konsep “tren perjalanan udara simpel”, sesuai era kekinian atau Millennials Traveling. Jika traveler akan membawa bagasi saat bepergian, maka dapat membeli bagasi. Sebaliknya, bila berangkat tanpa bagasi, maka tidak perlu membayar bagasi, sehingga lebih ekonomis karena disesuaikan dengan kebutuhan.
+Lion Air juga memperbolehkan traveler untuk membawa satu bagasi kabin (cabin baggage) dengan maksimum berat 7 kg dan satu barang pribadi (personal item), seperti tas laptop/perlengkapan bayi/bahan membaca/kamera/tas jinjing wanita (hand luggage) ke dalam kabin (hand carry), yang mengikuti aturan berlaku sesuai maksimum ukuran dimensi bagasi kabin pesawat.</t>
+  </si>
+  <si>
+    <t>Bidik Wisman, Sulut Luncurkan 14 Calendar of Event Sepanjang 2019</t>
+  </si>
+  <si>
+    <t>Sulawesi Utara (Sulut) menunjukkan komitmennya untuk mengembangkan sektor pariwisata, guna meningkatkan kunjungan wisatawan mancanegara dan nusantara. Hal ini terbukti dengan diluncurkannya 14 Calendar of Event (CoE) Sulawesi Utara 2019. 
+Dari 14 CoE 2019, terdapat tiga event unggulan yang masuk ke dalam 100 Calender of Event Wonderful Indonesia (CoE WI) 2019. Adapun ketiga event unggulan tersebut, yaitu Festival Pesona Bunaken, Tomohon International Flower Festival, dan Pesona Selat Lembeh.
+Menteri Pariwisata Arief Yahya, menuturkan bahwa Sulut saat ini menjadi The Rising Star, karena mampu mendorong pertumbuhan kinerja pariwisatanya hingga 600 persen dalam empat tahun terakhir.
+"Dalam empat tahun kunjungan wisman ke Sulut meningkat enam kali lipat. Begitu juga pergerakan wisatawan nusantara, dari sekitar 2 juta menjadi 4 juta, atau dua kali lipat. Padahal di daerah lain hanya sekitar 5 sampai 10 persen," kata Arief Yahya.
+Lebih lanjut, Arief juga mengapresiasi CoE 2019 Sulut untuk membidik wisman agar semakin banyak berlibur ke sana, khususnya dari China, Malaysia, Amerika Serikat, dan Inggris, serta pasar utamanya, Thailand, Singapura, dan Brunei Darussalam.
+"Wisman yang berkunjung ke Sulut, utamanya ke Manado dan Bitung pada tahun 2015 sebanyak 20 ribu, tahun 2016 meningkat menjadi 40 ribu, 2017 sebanyak 80 ribu, dan pada 2018 meningkat menjadi 120 ribu," lanjut Arief.
+Nantinya, Festival Pesona Bunaken direncanakan akan berlangsung di Manado pada 26-29 Juli 2019. Festival ini sengaja digelar sebagai bentuk upaya melestarikan sumber daya alam bawah laut dan seni budaya di Teluk Manado yang memiliki luas 8.08 km. 
+Sementara itu, event Tomohon International Flower Festival akan berlangsung di Kota Tomohon pada 7-12 Agustus 2019 mendatang. Event tahunan ini menampilkan kendaraan hias yang didekorasi menggunakan bunga khas Kota Tomohon dalam berbagai bentuk, dan variasi sesuai karakteristik masing-masing peserta. Kendaraan hias tersebut juga akan dinilai oleh tim di bidang florikultura.
+Kemudian, event Festival Pesona Selat Lembeh akan berlangsung pada 6-10 Oktober 2019 di Satkamla, Kecamatan Aertembaga, Kota Bitung. Acara ini dimeriahkan dengan kegiatan seperti sailing pass atau lomba kapal hias, festival kuliner, pentas seni dan budaya, penanaman koral, 10 K, dan thanksgiving. Festival ini bertujuan untuk mempromosikan potensi Kota Bitung dan Selat Lembeh.
+Siap menikmati 14 event yang disuguhkan Sulut?</t>
+  </si>
+  <si>
+    <t>Bangkai Kapal Kuno di Laut Yunani Akan Segera Dibuka untuk Wisatawan</t>
+  </si>
+  <si>
+    <t>Kabar bahagia datang bagi para penyelam di seluruh dunia. Pasalnya, mereka akan mendapatkan spot menyelam baru di Yunani, berupa situs bangkai kapal yang tenggelam berabad-abad lalu. 
+Dilansir Travel and Leisure, bangkai kapal bernama Peristera itu diperkirakan berasal dari abad ke-5 SM dan terletak di dekat Pulau Alonissos, Yunani. 
+Bangkai kapal Peristera diperkirakan menyimpan 4 ribu vas yang berisi anggur ketika tenggelam. Hingga kini bangkai kapal tersebut masih menyimpan misteri, karena hanya sebagian kecil dari bagiannya yang telah dieksplorasi.
+Sebagian besar vas yang masih utuh dan terbaring di dasar laut, membuat berbagai jenis ikan serta biota laut lainnya hidup di sana, yang membuatnya semakin indah.
+"Ini adalah kesempatan yang luar biasa untuk menyelam di sebuah bangkai kapal kuno. Ini benar-benar seperti menyelam ke dalam sejarah," kata Kostas Menemenoglou, salah satu penyelam di Yunani, kepada AP.
+Nantinya, situs ini bisa dikunjungi oleh penyelam dari berbagai dunia. Kemudian, bagi mereka yang tidak ingin menyelam dapat melihatnya melalui virtual reality yang ada di pusat informasi. 
+Sementara itu, Peristera dipercaya sebagai salah satu kapal kargo Athena terbesar yang pernah ditemukan, yang berada di kedalaman 30 meter di bawah laut. Selain Peristera, Yunani juga ternyata memiliki banyak artefak bawah laut dan bangkai kapal yang belum ditemukan hingga saat ini.
+"Tujuan selanjutnya dalam dua tahun ke depan adalah tak hanya membuat beberapa kapal karam di Yunani bisa dikunjungi, tetapi juga memberikan informasi penting dan meningkatkan kesadaran tentang warisan di bawah laut," kata Deputy Minister of Culture and Sports Yunani, Konstantinos Straits.
+Sebelumnya, situs dan warisan di bawah laut Yunani hanya dapat diakses oleh beberapa orang saja, terutama arkeolog. Scuba diving juga dilarang di beberapa lokasi tertentu hingga tahun 2005. Larangan tersebut diberlakukan karena kekhawatiran, bahwa penyelam mungkin menjarah barang antik yang tak terhitung jumlahnya, yang masih tersebar di dasar laut Yunani.</t>
+  </si>
+  <si>
+    <t>Unik! Demi Dapat Bagasi Kabin, Seorang Penumpang Disuruh Main Biola</t>
+  </si>
+  <si>
+    <t>Setuju atau tidak, ruang bagasi penyimpanan dalam kabin pesawat kerap kali membuat penumpang 'ricuh'. Ada saja penumpang yang membawa barang bawaan lebih banyak dari ketentuan dan pada akhirnya akan memakan ruang penyimpanan yang menjadi hak penumpang lain. 
+Padahal, sebenarnya maskapai penerbangan telah membuat ketentuan tertulis terkait dimensi dan kuantitas barang bawaan yang tertera, baik dalam website reservasi maupun di bandara kala penumpang hendak check-in. Namun, tetap saja ada penumpang yang 'bandel' dan tidak mengindahkan ketentuan tersebut. 
+Insiden tidak kebagian ruang bagasi ternyata bukan hanya dirasakan oleh kamu saja, lho. Pemain biola ternama asal Amerika Serikat Giora Schmidt, baru-baru ini juga mendapati bahwa ia tidak mendapatkan bagasi kabin karena ulah penumpang lain. 
+Dilansir Travel and Leisure, Schmidt pada 8 April 2019 lalu hendak terbang menggunakan Delta Airlines menuju Cincinnati, Amerika Serikat. Sayangnya, karena kabin penyimpanannya telah diisi oleh barang milik orang lain, ia tidak memiliki tempat untuk menyimpan biola miliknya. 
+Pramugari yang bertugas kemudian membuat kesepakatan dengan Schmidt bahwa ia akan mencarikan ruang kosong untuk menyimpan biola antik Italianya tersebut. Asalkan Schmidt mau memainkan beberapa lagu dengan biolanya bagi para penumpang. 
+"Dia berkata, 'Jika kamu memainkan konser kecil untuk kami, aku akan mencarikan ruang kosong.' Lalu aku setuju, karena menurutku dia sedang bercanda,” kata Schmidt, kepada Classic FM, seperti dikutip dari Travel and Leisure. 
+Setelah kesepakatan tercapai, pramugari pesawat pun mengumumkan pada penumpang kabin bahwa akan ada 'konser kecil' di dalam pesawat, asalkan penumpang mau memindahkan barang-barang mereka ke bawah kursi untuk memberikan ruang bagi biola Schmidt. Gurauan si pramugari ternyata ditanggapi positif. 
+Setelah penumpang memindahkan barang-barangnya dan pesawat diterbangkan, Schmidt memainkan beberapa lagu untuk menyenangkan para penumpang. Dalam salah satu unggahannya di media sosial, ia terlihat sedang memainkan Bach "E major Prelude". 
+Walau hanya berawal dari gurauan belaka, Schmidt, tak menyangka bahwa permainan biolanya di dalam pesawat sangat dihargai oleh penumpang lainnya. 
+"Saya tidak percaya dengan apa yang saya lihat. Ini adalah kejadian pertama kali terjadi dalam hidup saya, dan orang-orang merekam saya menggunakan ponsel, mereka juga memberikan tepuk tangan yang meriah di akhir permainan," ungkapnya terharu. 
+Wah, kalau di Indonesia, kamu dihadapkan dengan situasi seperti ini saat berada dalam pesawat, reaksimu seperti apa?</t>
+  </si>
+  <si>
+    <t>Unik! China Punya Desa yang Semua Penduduknya Jago Kung Fu</t>
+  </si>
+  <si>
+    <t>Di balik kemegahan Pegunungan Tianzhu China, ada sebuah desa unik dan terpencil bernama Ganxi Dong yang dihuni oleh para ahli bela diri Kung Fu. Tak hanya anak muda dan orang dewasa, wanita dan anak-anak pun juga menguasai seni bela diri yang diperkirakan sudah ada sejak 5.000 tahun silam.
+Dilansir Daily Mail, Desa Ganxi Dong adalah rumah bagi orang-orang Dong yang merupakan salah satu dari 56 etnis yang diakui di China. Kungfu di Desa Ganxi Dong merupakan sebuah tradisi yang masih dilakukan dan dipertahankan hingga saat ini.
+Bela diri atau Kung Fu bukanlah fokus utama mereka, melainkan hanya menjadi kegemaran sampingan di tengah pekerjaan rutin mereka menjadi petani.
+Dengan menggunakan berbagai peralatan seperti tongkat, garpu rumput, hingga tangan kosong, para penduduk desa menguasai seni bela diri dengan gayanya masing-masing. Para penduduk desa juga sering berlatih dengan cara saling berkelahi satu sama lain untuk mengasah kemampuan Kung Fu mereka. 
+Walaupun begitu, hingga kini belum diketahui dengan pasti mengapa para penduduk desa tersebut berlatih Kung Fu dan sudah berapa lama tradisi kuno tersebut berlangsung. Namun, para penduduk desa memiliki dua teori bagaimana semua itu terjadi. 
+Versi pertama, para penduduk desa meyakini kalau ini terjadi karena para penduduk desa selalu diserang oleh binatang buas. Alhasil, sebagai solusinya pada saat itu adalah para pemuda terkuat dipilih dari masing-masing keluarga untuk belajar seni bela diri. Mereka akan memepelajari teknik-teknik seperti gerakan naga, ular, harimau, hingga macan tutul. 
+Keterampilan tersebut juga akan diturunkan kepada angota keluarga mereka. Setiap keluarga juga mempelajari satu teknik khusus dan berlatih dengan gaya yang berbeda dengan keluarga lain.
+Sedangkan kisah lainnya, ilmu bela diri menyebar ke desa karena banyaknya penjarahan yang terjadi. Penjarahan itu dilakukan tetangga sendiri sehingga tercetus inisiatif untuk mempelajari ilmu bela diri guna terhindar dari penjarahan. Awalnya hanya satu keluarga hingga akhirnya diteruskan kepada seluruh warga desa.
+Namun, karena sudah lama menjadi tradisi, tak ada yang bisa memastikan alasan bagaimana kebenaran dari kedua cerita tersebut. Hingga saat ini tradisi seni bela diri Kung Fu masih hidup dan berkembang di Desa Ganxi Dong.
+Bahkan, kini para wanita yang tinggal di desa tersebut didorong untuk mempelajari Kung Fu sebab para pemuda lebih memilih meninggalkan desa dan bertolak ke kota untuk bekerja. Selain itu juga untuk mempertahankan tradisi Kungfu tersebut.</t>
   </si>
 </sst>
 </file>
@@ -461,7 +930,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -469,6 +937,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,16 +1254,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D432C5D0-1F3A-4579-A20A-F105825AA4F5}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.77734375" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="50.77734375" style="1"/>
-    <col min="3" max="3" width="50.77734375" style="4"/>
+    <col min="3" max="3" width="50.77734375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -802,7 +1273,7 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -813,7 +1284,7 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -824,7 +1295,7 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -835,7 +1306,7 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -846,7 +1317,7 @@
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -857,7 +1328,7 @@
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -868,7 +1339,7 @@
       <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -879,7 +1350,7 @@
       <c r="B8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -890,7 +1361,7 @@
       <c r="B9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -901,7 +1372,7 @@
       <c r="B10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -912,228 +1383,558 @@
       <c r="B11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>3</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>35</v>
+        <v>14</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>63</v>
+        <v>14</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
